--- a/data/trans_dic/P12A1_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación &lt;16 años</t>
+          <t>Población con alguna limitación &lt;16 años (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 35,05</t>
+          <t>0,52; 5,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,54; 31,77</t>
+          <t>1,12; 5,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,22; 45,15</t>
+          <t>1,31; 6,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 14,18</t>
+          <t>1,15; 3,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 9,72</t>
+          <t>0,79; 3,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 11,91</t>
+          <t>1,27; 4,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 18,48</t>
+          <t>0,24; 1,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 15,43</t>
+          <t>0,5; 1,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 19,0</t>
+          <t>0,81; 2,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 18,95</t>
+          <t>1,13; 3,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 29,42</t>
+          <t>1,1; 3,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,49; 12,8</t>
+          <t>1,1; 2,92</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 3,51</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 3,16</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 4,01</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 3,23</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 2,72</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 3,31</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 19,02</t>
+          <t>0,23; 2,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,91</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 15,54</t>
+          <t>0,43; 2,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,07</t>
+          <t>0,18; 1,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,42; 14,91</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 16,06</t>
+          <t>0,0; 2,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 12,89</t>
+          <t>0,54; 2,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 19,28</t>
+          <t>0,66; 2,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 13,15</t>
+          <t>0,47; 2,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 10,92</t>
+          <t>1,29; 4,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 11,09</t>
+          <t>0,31; 4,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 14,46</t>
+          <t>0,0; 2,94</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 2,02</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 1,51</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 1,88</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 2,76</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 2,85</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 2,2</t>
         </is>
       </c>
     </row>
@@ -941,55 +1110,85 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>9,44%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>10,03%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,37 +1203,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,68</t>
+          <t>0,0; 16,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,01</t>
+          <t>0,0; 20,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 28,72</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 9,05</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,20 +1243,50 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,02</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,27</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 16,0</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,05; 21,4</t>
+          <t>0,56; 3,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 22,03</t>
+          <t>0,73; 3,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,18; 28,43</t>
+          <t>1,3; 5,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 11,97</t>
+          <t>1,1; 4,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 9,69</t>
+          <t>0,72; 2,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 10,28</t>
+          <t>1,11; 3,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 11,83</t>
+          <t>0,46; 1,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 13,81</t>
+          <t>0,63; 1,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 12,32</t>
+          <t>0,74; 1,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 14,34</t>
+          <t>1,32; 3,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,61; 19,16</t>
+          <t>1,05; 2,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,36</t>
+          <t>1,0; 2,5</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 1,94</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 2,37</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 2,88</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 3,69</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 2,29</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 2,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación &lt;16 años (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29356</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>37939</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45250</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>36519</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11940</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18774</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27916</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>37453</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>41296</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>56712</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>73166</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>73972</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8204</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>9676</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8596; 96016</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18368; 93885</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21516; 106228</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18896; 61142</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1805; 7532</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2903; 10274</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4414; 28635</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9110; 35442</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14677; 45003</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20236; 65993</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2614; 7172</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2583; 6886</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>20119; 121666</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>33658; 109795</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>46661; 138547</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>49387; 110645</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>5337; 12700</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>6443; 15340</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5337</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15179</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9351</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19218</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18609</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15421</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34782</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>32722</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>23946</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>30601</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>44132</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1572</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3112; 31206</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19402</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5916; 33013</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2443; 24794</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2224</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7491; 35713</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9003; 34616</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6459; 29070</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17972; 63391</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>204; 2627</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>16004; 55851</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>12607; 41557</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>16907; 51846</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>24740; 76390</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>561; 3915</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>314; 3068</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19781</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>29804</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>19781</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>29804</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 70272</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 85759</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 119757</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0; 82980</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0; 102435</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>0; 132644</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>42861</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>60262</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>80211</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>75674</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4370</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5898</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>31157</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>37383</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>43337</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>72235</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5406</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4988</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>74018</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>97645</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>123548</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>147909</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>9776</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>10886</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>19175; 107215</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>25117; 128567</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>44641; 177012</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>37711; 163600</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2165; 7913</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3344; 10962</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>16490; 53473</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22606; 58099</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>26881; 65778</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>47450; 112812</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3189; 8522</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3028; 7547</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>46017; 137046</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>63749; 166870</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>79866; 202868</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>101366; 259182</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>6529; 13870</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>7535; 15675</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
